--- a/remianch/evidence.xlsx
+++ b/remianch/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\omer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB2395-8A27-4779-AFE1-97C3DB623972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD08C04C-9962-40DC-A47C-1F64A67CF8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +125,60 @@
   </si>
   <si>
     <t>Cosmos</t>
+  </si>
+  <si>
+    <t>E650C950B564E0F8298089F1A4473C51EEA40B04CD9A9CEBCB3D8CB565B45CB9</t>
+  </si>
+  <si>
+    <t>remianchnft</t>
+  </si>
+  <si>
+    <t>DAF8BBCA2BF8186FD3F71346500E8B3FF4FF8EF79E2600279660920BC3AEE3D8</t>
+  </si>
+  <si>
+    <t>59413FF2D6172ECE60DFCFF26B91AC15873FAFDCE6E4793B1CB72BB3AD694730</t>
+  </si>
+  <si>
+    <t>E8CD74714844AC491548A3E4696EB9F8EF8BDB705E651DD96BF54D8DE2662831</t>
+  </si>
+  <si>
+    <t>C900CD3FB0F03A1B850EBB6E21EF9797AD8A764F35E2C27C4464178EF4B8BF9C</t>
+  </si>
+  <si>
+    <t>nft0001</t>
+  </si>
+  <si>
+    <t>nft0002</t>
+  </si>
+  <si>
+    <t>nft0003</t>
+  </si>
+  <si>
+    <t>nft0004</t>
+  </si>
+  <si>
+    <t>juno1zwk7ndazcxpn5es86jagne0k5c4evs4r0h9vf3wvntu3n82ln6eshv6zmy</t>
+  </si>
+  <si>
+    <t>01FF88411E3C340193E2D3662C0CDD38E259108EC6D46700BE2AC91BEAE94C22</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>42ED1A375D85070E90D5B49B9CB267FE626763D6F11B2994BA6121BA8080278D</t>
+  </si>
+  <si>
+    <t>ibc/4402035D8DFB7AE92DDE6134891AAFBB7286EF79DBAD44C724CCBBA934F02A3D</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>7496FB99FF0BD43F04BECA66E910F6FB9B634BF7FAE16A22CAF3C7B026E2E91E</t>
+  </si>
+  <si>
+    <t>800B8B91456EC85B1682FB0793AA35D4065429BB3792052213DD5624EF172C2A</t>
   </si>
 </sst>
 </file>
@@ -537,8 +573,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,54 +591,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1073,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1054,10 +1092,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1298,9 +1336,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1321,13 +1361,46 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1415,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1366,17 +1441,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1466,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1416,16 +1493,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1517,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1465,16 +1544,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1568,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1515,16 +1596,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/remianch/evidence.xlsx
+++ b/remianch/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\omer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD08C04C-9962-40DC-A47C-1F64A67CF8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEED0D-D85A-4082-9FB7-8FF4D4F3693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -179,6 +164,171 @@
   </si>
   <si>
     <t>800B8B91456EC85B1682FB0793AA35D4065429BB3792052213DD5624EF172C2A</t>
+  </si>
+  <si>
+    <t>rmh07</t>
+  </si>
+  <si>
+    <t>ibc/A845ED939C11AF16184A8C7720675B0295DB485C25E4E5BE6EE979FB04E4519A</t>
+  </si>
+  <si>
+    <t>rmh08</t>
+  </si>
+  <si>
+    <t>ibc/7A33047D4FEF07BFC9F151F2F4B36DE534810C11DB4347119D5DC2383AEB64E0</t>
+  </si>
+  <si>
+    <t>rmh09</t>
+  </si>
+  <si>
+    <t>ibc/152B361B64E81F3B313093781A29CF3D035BB77537D64506A4A9E026D0B5D782</t>
+  </si>
+  <si>
+    <t>rmh10</t>
+  </si>
+  <si>
+    <t>ibc/155B2ABA819E68D4F16E71863B60C63DE57B442F639CF0A6EB7A3A0E9E082F68</t>
+  </si>
+  <si>
+    <t>rmh11</t>
+  </si>
+  <si>
+    <t>ibc/218E3608CDCF646255A846C0DE30381E2FC1DD3BE11F871B7E95B60CF73E841F</t>
+  </si>
+  <si>
+    <t>rmh12</t>
+  </si>
+  <si>
+    <t>ibc/ED2629C7D04678C788A41EA019EFCED8017F6C2B2F03DC0A72717D3EF3F1EC85</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>FED9CC9A2E3EFE20A6C0D86759886DF6BBB05FD48E9BBC95D40CDA2A2231F1C7</t>
+  </si>
+  <si>
+    <t>1047ED9408E5BCBE66CA5E41184ADB57B2431EA7EDD2ED12A2ED8C7DDE66328C</t>
+  </si>
+  <si>
+    <t>43B410C83BDCFDBF7287E6BF60AA7639544AFBE9ABBC073FEEF0EBB1BE243F18</t>
+  </si>
+  <si>
+    <t>A7F1252AF7F2E5AA0F81BDE57E4661D55812F37E23818D95022D4E9B0B17A758</t>
+  </si>
+  <si>
+    <t>2A72B22A60AFAED9D90960CADB67C79F55B9F94DA0C390E3A28F783B6AD3FB00</t>
+  </si>
+  <si>
+    <t>E202A9F8DA62BCF966C41BE10F5C1EB5B257EA567CD572706032F9F1752ECDEF</t>
+  </si>
+  <si>
+    <t>AA5364258632D88FD34F598D656E26CC355E75999F08299C9F91B78145B63740</t>
+  </si>
+  <si>
+    <t>AF79379329E088A3130AA62581D32B6A76DF1D501EB5F760D52DDCAC80B7B062</t>
+  </si>
+  <si>
+    <t>65121666F4486AD1BC7F199E5F5FB381E7A9CA9E3894C0587A402243FBD9A05C</t>
+  </si>
+  <si>
+    <t>48B2C85466ED6A5158D2CA4AF6BCDDB06E65DB966C7F753FB6B01ACB5D3A11AD</t>
+  </si>
+  <si>
+    <t>23D63D78AA2556D18E624B9B713BF3F7452A07865A5955D455637BCB4E594B73</t>
+  </si>
+  <si>
+    <t>724E57A04A43844CD57C4BD3FEEF76A837800379EF9EFAE3C517A6DFDED0739E</t>
+  </si>
+  <si>
+    <t>061EAFF48B96D2DF778DB24A9064B6743C40533E7D3C5985AB96304773D4522F</t>
+  </si>
+  <si>
+    <t>FEBA7A3E0BE1921D2BC4C88C353152D42B08F14C19AF975EBA85807144601F5C</t>
+  </si>
+  <si>
+    <t>B9D9E990D37D7558A3E69CD54CF65EA342B8D66D17FF0E7487EDB0FC244C8F76</t>
+  </si>
+  <si>
+    <t>68EB862C32CE03F24E05DD04E2CBCF1927233A9DFC3FB47156B1AF3996AE8023</t>
+  </si>
+  <si>
+    <t>6440ED588116A14BD0D04798105EB423FA0722EFDC7BA0DB61663D9CE9A0777E</t>
+  </si>
+  <si>
+    <t>06A6BB2BF278B3F3769A0F0BDE2B89B5C71291F3D4E8E8EA4E7147246C6836C5</t>
+  </si>
+  <si>
+    <t>60892EC3F9CE2B084F49952A95E4043D22FD4749EEF7ACAFF94E5F081A795687</t>
+  </si>
+  <si>
+    <t>91EF007AEF458C6C8B9648E53B5CA627F32B56500CC786E2927E5E562F5FA00A</t>
+  </si>
+  <si>
+    <t>7E82956F5455BF73F3DA92BED13F52FBACD1353B22075D9189E0FAC3E9E4AFE9</t>
+  </si>
+  <si>
+    <t>7D258090ACB3CAA5BC356A5D850F8DEC78C97480C66D9F255841FF6E00774A3D</t>
+  </si>
+  <si>
+    <t>D4790B66F9AFFD228C196E5E85BF3C4595FC395E391FD01BCAE07612C76F0F3E</t>
+  </si>
+  <si>
+    <t>37869FF5277878FFDA1981F3095EB2D9DD1E57D5085A56784434A14EFD404216</t>
+  </si>
+  <si>
+    <t>91E0D5054AA1159F438944367B91C032956741389E1E90F117AA872905C411F1</t>
+  </si>
+  <si>
+    <t>5785A23219A8D5FE50A1D1DE946260B4AD9E4776A09BBB0699C00C595ED2492E</t>
+  </si>
+  <si>
+    <t>AD240078FE6C6E8D3FF35BE60FFEEA9C764C1C2BECEAA1C43E78840002F89F26</t>
+  </si>
+  <si>
+    <t>6FC64546486E5681ACCEA9B4E49A70BAE26453E7860747CADD752B523807D2AD</t>
+  </si>
+  <si>
+    <t>7A169676DC275D8EDF7F9A6212AFA28356A495F62D9A3A7F7F2AFDC81B3C21A7</t>
+  </si>
+  <si>
+    <t>43C8DE85248374CDAC8A16800F08FF374AF51A6618FE630BBB8EB569F2465845</t>
+  </si>
+  <si>
+    <t>EB6C4ECE98EBBC3654C717C222BAF72B35A484218E3094C431E1530398E12345</t>
+  </si>
+  <si>
+    <t>BCDC5CC1A42FEE5C697FA593FA18AFDE834E14289FCF6EB6881CCD5E0EBAB686</t>
+  </si>
+  <si>
+    <t>6FED47699533E327FEE70DA266ACFF2463BA615A6DB00C6D077D09C7EC405C72</t>
+  </si>
+  <si>
+    <t>2E446013DAC130D9D38646CBB332DB304771871F38E6FD22C02A9B65C8ACC047</t>
+  </si>
+  <si>
+    <t>C2D9C6ABAF6C453317690DE517FB459425E5CD4B3BC8168DF6CD61FF797C3350</t>
+  </si>
+  <si>
+    <t>734388B625572AE7A05AD79A5FC5DE0A65EE5DF8FFE5E99FDBCA774530729DEF</t>
+  </si>
+  <si>
+    <t>3C94CD219D987D04B72529024667722753FD30E2FE1A41FBB348CDEB9F5D4840</t>
+  </si>
+  <si>
+    <t>5CD33A063E837408E731CB3C7ED8E146C0D3CC504ED37BB47FD0182D81F478EA</t>
+  </si>
+  <si>
+    <t>974AE813A91F81DE88DAFFDC8EF3274CAB5DDCE03CCC96F6C7637701F9580837</t>
+  </si>
+  <si>
+    <t>B1B9075A689D6C1C343C527AE7DCBCFF69687423411EB61425E0F331318B6FF9</t>
   </si>
 </sst>
 </file>
@@ -252,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -266,6 +416,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,54 +745,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +807,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -663,18 +819,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +845,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,18 +857,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +883,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,18 +895,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +921,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -771,18 +933,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -795,9 +957,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -815,20 +979,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -841,9 +1019,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -861,20 +1041,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -887,9 +1081,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -907,20 +1103,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -933,9 +1143,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -953,20 +1165,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -979,9 +1205,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -999,20 +1227,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1025,9 +1267,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1044,21 +1288,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1087,15 +1345,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1108,9 +1366,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1128,20 +1388,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1154,9 +1444,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1174,20 +1466,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1202,6 +1524,78 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1229,8 +1623,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1263,74 +1657,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
@@ -1353,54 +1679,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1442,16 +1768,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1792,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -1482,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1493,16 +1819,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1544,16 +1870,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1596,16 +1922,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1946,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1630,18 +1958,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1984,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1666,18 +1996,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/remianch/evidence.xlsx
+++ b/remianch/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\omer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EEED0D-D85A-4082-9FB7-8FF4D4F3693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7E086-9738-447C-9DE7-DFC2D71201A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -329,6 +324,24 @@
   </si>
   <si>
     <t>B1B9075A689D6C1C343C527AE7DCBCFF69687423411EB61425E0F331318B6FF9</t>
+  </si>
+  <si>
+    <t>6F6D2F3165359FC4F189EC63D78355253C9161D0EA53C9411B63FAB48ACBBBC6</t>
+  </si>
+  <si>
+    <t>887F99599F8BFF73A997EDE38F4B4D2C5653A3B36D015564AD23695B601258AD</t>
+  </si>
+  <si>
+    <t>F45E9BC93B44A85AA550A6000AAA64E93874D4306ED3D665533664F178437747</t>
+  </si>
+  <si>
+    <t>612FEF85283F12C8251788B98431DB7331C336B38739D7BFC8A757786F5DB0B0</t>
+  </si>
+  <si>
+    <t>BCCD474C978E709B181CDA1DF94195FBC661B2E2F3490F1B0546A840BDA1AA67</t>
+  </si>
+  <si>
+    <t>EEA4BC91144DFFD0880E8E9A233A3D627D92799AD9635DC171B51293A1FE7755</t>
   </si>
 </sst>
 </file>
@@ -745,54 +758,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -819,10 +832,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,8 +889,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -857,10 +908,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,8 +927,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -895,10 +946,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,15 +965,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,34 +984,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,48 +1049,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1036,55 +1111,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,55 +1173,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,48 +1235,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1222,55 +1297,92 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
+      <c r="A2" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,92 +1396,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>75</v>
+      <c r="A2" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,133 +1474,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>82</v>
+      <c r="A5" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1539,6 +1552,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
@@ -1553,14 +1602,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1589,14 +1638,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1610,46 +1661,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91FE95F-0154-48D2-8DBC-25ADC472072C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1679,54 +1726,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1757,27 +1804,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1808,27 +1855,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1859,27 +1906,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1911,27 +1958,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1958,10 +2005,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,42 +2060,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>